--- a/Testing_Sheet.xlsx
+++ b/Testing_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\University Work\Games Design - Year 3\AI - DAC619\Artificial_Intelligence_for_Games_(DAC619)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{17D63B81-B80A-4059-A518-9AFE3E16DAB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{C26EFB83-9690-42A9-BDF1-301A3129BCBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>DistanceToItem</t>
+  </si>
+  <si>
+    <t>It finds an active item and returns a normalised range result between 0-1</t>
+  </si>
+  <si>
+    <t>The normalisation and finding of an item.</t>
   </si>
 </sst>
 </file>
@@ -191,37 +200,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -233,145 +255,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -386,7 +270,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -399,24 +283,132 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -442,15 +434,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F38" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F38" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:F38"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" name="Name" dataDxfId="6"/>
-    <tableColumn id="3" name="Test" dataDxfId="5"/>
-    <tableColumn id="4" name="Expected" dataDxfId="4"/>
-    <tableColumn id="5" name="Result" dataDxfId="3"/>
-    <tableColumn id="6" name="Type" dataDxfId="2"/>
+    <tableColumn id="1" name="ID" dataDxfId="9"/>
+    <tableColumn id="2" name="Name" dataDxfId="8"/>
+    <tableColumn id="3" name="Test" dataDxfId="7"/>
+    <tableColumn id="4" name="Expected" dataDxfId="6"/>
+    <tableColumn id="5" name="Result" dataDxfId="5"/>
+    <tableColumn id="6" name="Type" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -756,7 +748,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -766,402 +758,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F38">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
